--- a/codebase/ext/generic/cfg/WFTemplate. addition.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate. addition.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2CD7D8-0051-FA4B-8FD0-59DB71985867}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F049CD-2FC9-B045-8920-1102D659E127}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>请不要删除此行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>会签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/netmarkets/jsp/ext/generic/taskpage/GenericECNWF/Edit.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -499,7 +495,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -512,13 +508,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -527,24 +523,24 @@
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -553,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -562,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -571,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -580,48 +576,48 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -630,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -639,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -648,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -657,34 +653,34 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/codebase/ext/generic/cfg/WFTemplate. addition.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate. addition.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F049CD-2FC9-B045-8920-1102D659E127}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198DB1CC-D8B2-A747-8965-A33E7111C4BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>请不要删除此行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/netmarkets/jsp/ext/generic/taskpage/GenericECNWF/Common.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,14 +44,6 @@
     <t>批准</t>
   </si>
   <si>
-    <t>/netmarkets/jsp/ext/generic/taskpage/GenericECAWF/Edit.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/netmarkets/jsp/ext/generic/taskpage/GenericECAWF/Common.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CIS库维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +61,38 @@
   </si>
   <si>
     <t>APPO_DRAWINGCHANGEWF</t>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Common.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_BOMCHANGEWF/Edit.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_BOMCHANGEWF/Common.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_BOMCHANGEWF/Common.jsp</t>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_BOMCHANGEWF/Edit.jsp</t>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_DRAWINGCHANGEWF/Edit.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_DRAWINGCHANGEWF/Common.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_DRAWINGCHANGEWF/Common.jsp</t>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_DRAWINGCHANGEWF/Edit.jsp</t>
   </si>
 </sst>
 </file>
@@ -495,7 +515,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+      <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -508,39 +528,39 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -549,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -558,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -567,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -576,48 +596,48 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -626,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -635,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -644,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -653,34 +673,34 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/codebase/ext/generic/cfg/WFTemplate. addition.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate. addition.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198DB1CC-D8B2-A747-8965-A33E7111C4BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D9A283-83BD-3D45-B239-F0F159FAF17A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,11 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
-  <si>
-    <t>请不要删除此行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,36 +111,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,14 +134,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -512,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -527,188 +494,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/codebase/ext/generic/cfg/WFTemplate. addition.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate. addition.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D9A283-83BD-3D45-B239-F0F159FAF17A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E3193D-D160-8E47-9F7C-47F768E00083}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,22 @@
   </si>
   <si>
     <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_DRAWINGCHANGEWF/Edit.jsp</t>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Edit.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Sign.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Approval.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -479,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -504,63 +520,63 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -569,16 +585,16 @@
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -587,57 +603,57 @@
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
+      <c r="A15" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -646,16 +662,16 @@
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -664,9 +680,27 @@
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>
